--- a/正規化マスタ.xlsx
+++ b/正規化マスタ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\matsuoka\heartful-aikawa-harvest-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9027892-ADE1-4A60-A7D6-E274965EBD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2706989-0EAA-4199-97A0-5D7B40A3B37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="223">
   <si>
     <t>ロロロッサ</t>
     <phoneticPr fontId="1"/>
@@ -239,17 +239,803 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>昭和</t>
+    <t>アイスバーグレタス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスプラント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アシタバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イタリアンパセリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イチゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イチゴ（かおり野）</t>
+    <rPh sb="7" eb="8">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イチゴ（とちおとめ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンサイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンダイブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オクラ（ペニー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オクラ（五角）</t>
+    <rPh sb="4" eb="6">
+      <t>ゴカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレガノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーリーケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カールパセリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キンギョソウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クウシンサイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリーンオーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリーンスピナッチ（サボイ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリーンロメイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレソン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマツナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラードケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コリアンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シマトウガラシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュンギク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイスチャード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペアミント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターサイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タラゴン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チコリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャービル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャイブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トマト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナスタチウム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナデシコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なばな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パクチー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バジル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パセリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パプリカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビオラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピノグリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロッコリースプラウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペパーミント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　アマランサス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　グリーンオーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　グリーンケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　グリーンスピナッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　グリーンロメイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　ターサイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　チコリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　デトロイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　ピノグリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　ブラックケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　ルッコラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　レッドアマランサス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　レッドオーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　レッドケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　レッドソレイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　レッドマスタード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　レッドロメイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　ロログリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　ロロロッサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　早生ミズナ</t>
+    <rPh sb="7" eb="9">
+      <t>ワセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　葉ニンジン</t>
+    <rPh sb="7" eb="8">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ　赤茎ミズナ</t>
+    <rPh sb="7" eb="9">
+      <t>アカクキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロリーフ　アマランサス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロリーフ　デトロイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロリーフ　ピノグリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロリーフ　ルッコラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロリーフ　レッドマスタード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロリーフ　赤茎ミズナ</t>
+    <rPh sb="8" eb="10">
+      <t>アカクキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジョラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニカブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニトマト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニ人参</t>
+    <rPh sb="2" eb="4">
+      <t>ニンジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニ青梗菜</t>
+    <rPh sb="2" eb="5">
+      <t>チンゲンサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メロン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラディッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルッコラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レタス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドオーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドオークカラシミズナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドスピナッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドマスタード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レモングラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローズマリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロログリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わさび菜</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中生ミズナ</t>
     <rPh sb="0" eb="2">
-      <t>ショウワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本ファブ</t>
+      <t>ナカテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中葉春菊</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュンギク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工品　イチゴ</t>
+    <rPh sb="0" eb="3">
+      <t>カコウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工品　トマト</t>
+    <rPh sb="0" eb="3">
+      <t>カコウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小ネギ</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枝豆</t>
+    <rPh sb="0" eb="2">
+      <t>エダマメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縮面ケール</t>
+    <rPh sb="0" eb="2">
+      <t>シュクメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤しそ</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤茎ミズナ</t>
+    <rPh sb="0" eb="2">
+      <t>アカクキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青シソ</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/葉物野菜</t>
+    <rPh sb="1" eb="5">
+      <t>ハモノヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変換後名（企業名にくっつける）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キギョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/葉物野菜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/イチゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/トマト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/ナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/ハーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/実物野菜</t>
+    <rPh sb="1" eb="3">
+      <t>ミモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/パプリカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/実物野菜</t>
+    <rPh sb="1" eb="5">
+      <t>ミモノヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/ピーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/食用花</t>
+    <rPh sb="1" eb="4">
+      <t>ショクヨウハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/マイクロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/ミニトマト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/根物野菜</t>
+    <rPh sb="1" eb="3">
+      <t>ネモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/根物野菜</t>
+    <rPh sb="1" eb="5">
+      <t>ネモノヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振り分け</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べビーリーフ以外</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工用</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>NaITO</t>
+  </si>
+  <si>
+    <t>加工品 ベビーリーフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/加工イチゴ</t>
+    <rPh sb="1" eb="3">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/加工トマト</t>
+    <rPh sb="1" eb="3">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/加工BL</t>
+    <rPh sb="1" eb="3">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/BL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　グリーンオーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　レッドオーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　ピノグリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　ロロロッサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　ロログリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　赤茎ミズナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　アマランサス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　チコリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　レッドケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　レッドマスタード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　グリーンケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　レッドアマランサス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　葉ニンジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビーリーフ　ブラックケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンセイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牧野フライス</t>
+    <rPh sb="0" eb="2">
+      <t>マキノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本ファブテック</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンセイランディック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昭和女子</t>
+    <rPh sb="0" eb="4">
+      <t>ショウワジョシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリュエンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンテレホン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンテレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本ファブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昭和</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adobe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IIM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イソップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDAJ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -260,683 +1046,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイスバーグレタス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイスプラント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アシタバ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イタリアンパセリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イチゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イチゴ（かおり野）</t>
-    <rPh sb="7" eb="8">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イチゴ（とちおとめ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エンサイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エンダイブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オクラ（ペニー）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オクラ（五角）</t>
+    <t>株式会社牧野フライス</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
     <rPh sb="4" eb="6">
-      <t>ゴカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オレガノ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーリーケール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カールパセリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キンギョソウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クウシンサイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グリーンオーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グリーンスピナッチ（サボイ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グリーンロメイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クレソン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コマツナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コラードケール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コリアンダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シマトウガラシ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シュンギク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイスチャード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スペアミント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターサイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タラゴン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チコリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャービル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャイブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トマト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナスタチウム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナデシコ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なばな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パクチー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バジル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パセリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パプリカ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピーマン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビオラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピノグリーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロッコリースプラウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペパーミント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　アマランサス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　グリーンオーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　グリーンケール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　グリーンスピナッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　グリーンロメイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　ターサイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　チコリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　デトロイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　ピノグリーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　ブラックケール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　ルッコラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　レッドアマランサス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　レッドオーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　レッドケール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　レッドソレイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　レッドマスタード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　レッドロメイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　ロログリーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　ロロロッサ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　早生ミズナ</t>
-    <rPh sb="7" eb="9">
-      <t>ワセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　葉ニンジン</t>
-    <rPh sb="7" eb="8">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ　赤茎ミズナ</t>
-    <rPh sb="7" eb="9">
-      <t>アカクキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボリジ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイクロリーフ　アマランサス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイクロリーフ　デトロイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイクロリーフ　ピノグリーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイクロリーフ　ルッコラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイクロリーフ　レッドマスタード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイクロリーフ　赤茎ミズナ</t>
-    <rPh sb="8" eb="10">
-      <t>アカクキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マジョラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミニカブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミニトマト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミニ人参</t>
-    <rPh sb="2" eb="4">
-      <t>ニンジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミニ青梗菜</t>
-    <rPh sb="2" eb="5">
-      <t>チンゲンサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メロン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラディッシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルッコラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レタス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レッドオーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レッドオークカラシミズナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レッドケール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レッドスピナッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レッドマスタード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レモングラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローズマリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロログリーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>わさび菜</t>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中生ミズナ</t>
-    <rPh sb="0" eb="2">
-      <t>ナカテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中葉春菊</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュンギク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加工品　イチゴ</t>
-    <rPh sb="0" eb="3">
-      <t>カコウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加工品　トマト</t>
-    <rPh sb="0" eb="3">
-      <t>カコウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小ネギ</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>枝豆</t>
-    <rPh sb="0" eb="2">
-      <t>エダマメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>縮面ケール</t>
-    <rPh sb="0" eb="2">
-      <t>シュクメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤しそ</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤茎ミズナ</t>
-    <rPh sb="0" eb="2">
-      <t>アカクキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青シソ</t>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/葉物野菜</t>
-    <rPh sb="1" eb="5">
-      <t>ハモノヤサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変換後名（企業名にくっつける）</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>キギョウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/葉物野菜</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/イチゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/トマト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/ナス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/ハーブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/実物野菜</t>
-    <rPh sb="1" eb="3">
-      <t>ミモノ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヤサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/パプリカ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/実物野菜</t>
-    <rPh sb="1" eb="5">
-      <t>ミモノヤサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/ピーマン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/食用花</t>
-    <rPh sb="1" eb="4">
-      <t>ショクヨウハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/マイクロ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/ミニトマト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/根物野菜</t>
-    <rPh sb="1" eb="3">
-      <t>ネモノ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヤサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/根物野菜</t>
-    <rPh sb="1" eb="5">
-      <t>ネモノヤサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>振り分け</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>べビーリーフ以外</t>
-    <rPh sb="6" eb="8">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加工用</t>
-    <rPh sb="0" eb="2">
-      <t>カコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>Adobe</t>
-  </si>
-  <si>
-    <t>QB</t>
-  </si>
-  <si>
-    <t>サンセイ</t>
-  </si>
-  <si>
-    <t>サンテレ</t>
-  </si>
-  <si>
-    <t>NaITO</t>
-  </si>
-  <si>
-    <t>バリュ</t>
-  </si>
-  <si>
-    <t>加工品 ベビーリーフ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/加工イチゴ</t>
-    <rPh sb="1" eb="3">
-      <t>カコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/加工トマト</t>
-    <rPh sb="1" eb="3">
-      <t>カコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/加工BL</t>
-    <rPh sb="1" eb="3">
-      <t>カコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/BL</t>
+      <t>マキノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工品　ベビーリーフ</t>
+  </si>
+  <si>
+    <t>縮緬ケール</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -980,8 +1103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1262,9 +1388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD2E59B-8281-4DAB-9FF8-0B196349DEFE}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1285,7 +1413,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1293,7 +1421,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1301,7 +1429,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1309,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1317,7 +1445,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1325,7 +1453,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1341,7 +1469,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1349,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1365,7 +1493,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1373,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1397,7 +1525,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1405,7 +1533,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1421,7 +1549,7 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1437,7 +1565,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1445,7 +1573,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1453,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1469,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1485,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1493,7 +1621,7 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1501,7 +1629,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1509,7 +1637,7 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1533,7 +1661,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1541,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1557,7 +1685,7 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1565,7 +1693,7 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1573,8 +1701,144 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
-      </c>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1584,11 +1848,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC98960-7167-4DD1-A94D-DAE744F9966E}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1602,1088 +1864,1088 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2691,142 +2953,329 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C108" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C111" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" t="s">
+        <v>188</v>
+      </c>
+      <c r="C126" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" t="s">
+        <v>188</v>
+      </c>
+      <c r="C127" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
